--- a/streamlit_app/data/October_Data_Matrix.xlsx
+++ b/streamlit_app/data/October_Data_Matrix.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trevor\Downloads\streamlit_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emily\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09CE1EE-AE1D-432F-88D4-234197B2B135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{292B1302-7A7C-46B6-B5E3-1C3DF17586BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data 1" sheetId="3" r:id="rId1"/>
-    <sheet name="data 2" sheetId="1" r:id="rId2"/>
-    <sheet name="data 3" sheetId="2" r:id="rId3"/>
+    <sheet name="data 1" sheetId="1" r:id="rId1"/>
+    <sheet name="data 2" sheetId="2" r:id="rId2"/>
+    <sheet name="data 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="355">
   <si>
     <t>source_page</t>
   </si>
@@ -1087,18 +1087,12 @@
   </si>
   <si>
     <t>$64,539.39</t>
-  </si>
-  <si>
-    <t>Gift Card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,12 +1142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,12 +1448,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1472,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>347</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1489,13 +1480,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>354</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1506,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1523,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1540,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1557,399 +1548,276 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>349</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
-    <sortCondition ref="C2:C6"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="C2:C21"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
@@ -3813,4 +3681,384 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDC7BCEA6D339342AD139E7B06678B44" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="79aa9c4d2f3b0540493d53740e384a7f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2af97771-d360-45fa-bf26-b40fd7f7c510" xmlns:ns4="5510b645-2614-4183-bf59-86d372181bb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2bf99ead6d3741d798c053c531d2f818" ns3:_="" ns4:_="">
+    <xsd:import namespace="2af97771-d360-45fa-bf26-b40fd7f7c510"/>
+    <xsd:import namespace="5510b645-2614-4183-bf59-86d372181bb1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2af97771-d360-45fa-bf26-b40fd7f7c510" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5510b645-2614-4183-bf59-86d372181bb1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2af97771-d360-45fa-bf26-b40fd7f7c510" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB27096A-F745-43B2-B657-D59E87C8A18E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2af97771-d360-45fa-bf26-b40fd7f7c510"/>
+    <ds:schemaRef ds:uri="5510b645-2614-4183-bf59-86d372181bb1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C83166-B045-45AE-99BC-A093E8E8D319}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05170158-6004-4DF1-9533-ACF2B5D9D15F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2af97771-d360-45fa-bf26-b40fd7f7c510"/>
+    <ds:schemaRef ds:uri="5510b645-2614-4183-bf59-86d372181bb1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>